--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Nikitha</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Pet not found</t>
+  </si>
+  <si>
+    <t>{"id":9223127516111559522,"category":{"id":0,"name":"Nikitha"},"name":"Gourisetty","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
+  </si>
+  <si>
+    <t>{"id":9223127516111559522,"category":{"id":0,"name":"Nik1"},"name":"doggie","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
   </si>
 </sst>
 </file>
@@ -441,10 +447,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReadyAPI\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReadyAPI\APIAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BA9EC-D6A9-4870-A74E-B61F4830E0F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667532EC-9EA7-4D3F-A880-68228F370AAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nikitha</t>
   </si>
@@ -54,34 +54,13 @@
     <t>Delete_Response</t>
   </si>
   <si>
-    <t>{"id":9223127516080548109,"category":{"id":0,"name":"Nikitha"},"name":"Gourisetty","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
-  </si>
-  <si>
-    <t>{"id":9223127516080548109,"category":{"id":0,"name":"Nik1"},"name":"doggie","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
-  </si>
-  <si>
-    <t>{"code":1,"type":"error","message":"Pet not found"}</t>
-  </si>
-  <si>
-    <t>{"id":9223127516080548122,"category":{"id":0,"name":"Nikitha"},"name":"Gourisetty","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
-  </si>
-  <si>
-    <t>{"id":9223127516080548122,"category":{"id":0,"name":"Nik1"},"name":"doggie","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
-  </si>
-  <si>
-    <t>{"id":9223127516111559454,"category":{"id":0,"name":"Nikitha"},"name":"Gourisetty","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
-  </si>
-  <si>
-    <t>{"id":9223127516111559454,"category":{"id":0,"name":"Nik1"},"name":"doggie","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
+    <t>{"id":9223127516111559602,"category":{"id":0,"name":"Nikitha"},"name":"Gourisetty","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
+  </si>
+  <si>
+    <t>{"id":9223127516111559602,"category":{"id":0,"name":"Nik1"},"name":"doggie","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
   </si>
   <si>
     <t>Pet not found</t>
-  </si>
-  <si>
-    <t>{"id":9223127516111559522,"category":{"id":0,"name":"Nikitha"},"name":"Gourisetty","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
-  </si>
-  <si>
-    <t>{"id":9223127516111559522,"category":{"id":0,"name":"Nik1"},"name":"doggie","photoUrls":["string"],"tags":[{"id":0,"name":"string"}],"status":"available"}</t>
   </si>
 </sst>
 </file>
@@ -406,7 +385,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F4"/>
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,13 +426,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
